--- a/pred_ohlcv/54_21/2020-01-25 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 APIS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-68279400.9075</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-70268170.98719999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-72438785.34459999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-75515206.19499999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-74335401.40259999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-72832291.06259999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-70805490.26059999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-68821314.49799998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-76224361.29061371</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-76223471.40941371</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-78920035.98941371</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-78919159.41751371</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-81455283.50011371</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-88357465.48091371</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-88826726.06261371</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-95396383.05361372</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-96528365.30141371</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-94106684.65401371</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-96681444.11291371</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-101106361.1145137</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-101162075.4193137</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-101162075.4193137</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-120865836.4686137</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-121889298.9126137</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-121888313.8845137</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-123285533.9658439</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-125953913.4676439</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-123610051.823844</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-126424661.693444</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-128376129.677944</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-128375237.960744</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-128376135.960744</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-128375226.989344</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 APIS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-68279400.9075</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-70268170.98719999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-72438785.34459999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-75515206.19499999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-74335401.40259999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-72832291.06259999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-70805490.26059999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-68821314.49799998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-72362769.33971371</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-73782869.20151371</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-76224361.29061371</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-78920035.98941371</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-78919159.41751371</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-81455283.50011371</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-84391729.42021371</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-88357465.48091371</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-95396383.05361372</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-96528365.30141371</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-94106684.65401371</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-96681444.11291371</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-101106361.1145137</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-101162075.4193137</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-101162075.4193137</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-125953913.4676439</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-123610051.823844</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-126424661.693444</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-128376129.677944</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-128375237.960744</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-128376135.960744</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-128375226.989344</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-131458878.509444</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-131457909.507444</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-137177998.358044</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-140423171.6736439</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-145440925.5732439</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-147727020.8302439</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-158991965.8789439</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-154142126.7095439</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-160035112.9560439</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
